--- a/meta/sampleObjects/SimpleSample.xlsx
+++ b/meta/sampleObjects/SimpleSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectTs/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/sampleObjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9573E5-9902-AD4B-82F3-FA08086FA65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF713C0-D7AE-FB49-AA1A-1091A2BF894F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9100" yWindow="6000" windowWidth="21680" windowHeight="11800" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>バリューオブジェクトのサンプル。このクラスは単にサンプルです。実際の動作には利用されません。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>デフォルト値あり</t>
     <rPh sb="5" eb="6">
       <t>チ</t>
@@ -224,6 +220,12 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バリューオブジェクトのサンプル。&lt;br&gt;
+このクラスは単にサンプルです。&lt;br&gt;
+実際の動作には利用されません。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -719,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -811,19 +813,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,7 +1249,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1278,7 +1289,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="53"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
@@ -1286,11 +1297,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="54"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:11">
@@ -1299,27 +1310,27 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="54"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="61" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
@@ -1338,11 +1349,11 @@
     </row>
     <row r="10" spans="1:11" s="34" customFormat="1">
       <c r="A10" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1352,11 +1363,11 @@
     </row>
     <row r="11" spans="1:11" s="34" customFormat="1">
       <c r="A11" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1376,7 +1387,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -1430,41 +1441,41 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="51" t="s">
+      <c r="D17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="51"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="16"/>
       <c r="J17" s="17"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="18"/>
       <c r="J18" s="30"/>
       <c r="K18" s="15"/>
@@ -1474,18 +1485,18 @@
         <v>1</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -1497,18 +1508,18 @@
         <v>2</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -1555,7 +1566,8 @@
       <c r="K23" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C8:I8"/>
     <mergeCell ref="G17:H18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
@@ -1609,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19">
       <c r="A1" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -1620,25 +1632,25 @@
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" s="44"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="F3" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="H3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="J3" s="45" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1650,19 +1662,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
